--- a/Documentation/psu/PSU_system_BOM.xlsx
+++ b/Documentation/psu/PSU_system_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>Column10</t>
   </si>
@@ -274,6 +274,54 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992</t>
+  </si>
+  <si>
+    <t>Protoboard</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>PRT-08619</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8619?</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>3Ah</t>
+  </si>
+  <si>
+    <t>Dewalt</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t> DCB200</t>
+  </si>
+  <si>
+    <t>20v Li-Ion</t>
+  </si>
+  <si>
+    <t>B0052MIMQU</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/DEWALT-DCB200-Li-Ion-Premium-Battery/dp/B0052MIMQU</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>DCB101</t>
+  </si>
+  <si>
+    <t>B0052MINQO</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/DEWALT-DCB101-12-Volt-20-Volt-Battery/dp/B0052MINQO/ref=pd_sim_hi_3</t>
   </si>
 </sst>
 </file>
@@ -284,7 +332,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +363,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +390,18 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -352,14 +424,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -372,11 +461,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -394,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K16" totalsRowShown="0">
-  <autoFilter ref="A1:K16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K19" totalsRowShown="0">
+  <autoFilter ref="A1:K19"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="15" name="Description"/>
@@ -702,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P179"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,67 +1337,184 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="12">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="3">
+        <v>39.99</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="6">
+        <v>57.99</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>57.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E19" s="5">
         <v>22012037</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I19" s="6">
         <v>0.18</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K19" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
         <f>SUM(Table3[Quantity])</f>
-        <v>37</v>
-      </c>
-      <c r="K18" s="8">
+        <v>40</v>
+      </c>
+      <c r="K21" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>143.19000000000003</v>
+      </c>
+    </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="15">
+        <v>39.99</v>
+      </c>
+    </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1457,6 +1671,9 @@
     <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
@@ -1500,15 +1717,23 @@
     <hyperlink ref="G14" r:id="rId39" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
     <hyperlink ref="H14" r:id="rId40"/>
     <hyperlink ref="H13" r:id="rId41"/>
-    <hyperlink ref="D16" r:id="rId42" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E16" r:id="rId43" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G16" r:id="rId44" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="H16" r:id="rId45"/>
+    <hyperlink ref="D19" r:id="rId42" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E19" r:id="rId43" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G19" r:id="rId44" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="H19" r:id="rId45"/>
+    <hyperlink ref="G16" r:id="rId46"/>
+    <hyperlink ref="H18" r:id="rId47"/>
+    <hyperlink ref="G18" r:id="rId48"/>
+    <hyperlink ref="E18" r:id="rId49"/>
+    <hyperlink ref="G23" r:id="rId50"/>
+    <hyperlink ref="E23" r:id="rId51"/>
+    <hyperlink ref="G17" r:id="rId52"/>
+    <hyperlink ref="E17" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId55"/>
   </tableParts>
 </worksheet>
 </file>
